--- a/account.xlsx
+++ b/account.xlsx
@@ -253,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -287,6 +287,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="เครื่องหมายจุลภาค" xfId="1" builtinId="3"/>
@@ -571,7 +573,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,115 +627,198 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="20">
         <v>17000</v>
       </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20">
         <v>13150</v>
       </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="19"/>
+      <c r="D6" s="20">
         <v>1195</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="19" t="s">
         <v>21</v>
       </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="19" t="s">
         <v>22</v>
       </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="19" t="s">
         <v>24</v>
       </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="19" t="s">
         <v>25</v>
       </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="19" t="s">
         <v>30</v>
       </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">

--- a/account.xlsx
+++ b/account.xlsx
@@ -287,8 +287,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="เครื่องหมายจุลภาค" xfId="1" builtinId="3"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -134,7 +134,7 @@
     <t>กำไร(ขาดทุน)</t>
   </si>
   <si>
-    <t>ไม้,สติกเกอร์,แมก,ใบคัดเตอร์</t>
+    <t>ไม้,สติกเกอร์,แมก,ใบคัดเตอร์,ลูกแมก</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
     <numFmt numFmtId="187" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="188" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +180,13 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -269,6 +276,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,8 +296,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="เครื่องหมายจุลภาค" xfId="1" builtinId="3"/>
@@ -573,7 +581,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,251 +595,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="14">
         <v>17000</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14">
         <v>13150</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20">
-        <v>1195</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14">
+        <v>1295</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="21" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="4">
         <f>SUM(C4:C21)</f>
         <v>17000</v>
       </c>
       <c r="D22" s="9">
         <f>SUM(D4:D21)</f>
-        <v>14345</v>
+        <v>14445</v>
       </c>
       <c r="E22" s="8">
         <f>SUM(E4:E21)</f>
@@ -840,14 +848,14 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -870,7 +878,7 @@
       </c>
       <c r="C26" s="2">
         <f>D22</f>
-        <v>14345</v>
+        <v>14445</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -883,18 +891,18 @@
       </c>
       <c r="D27" s="7">
         <f>SUM(C26+C27)</f>
-        <v>14345</v>
+        <v>14445</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11">
         <f>SUM(D24-D27)</f>
-        <v>2655</v>
+        <v>2555</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -278,6 +278,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,7 +297,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="เครื่องหมายจุลภาค" xfId="1" builtinId="3"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,44 +595,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
@@ -671,10 +671,10 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14">
-        <v>1295</v>
+        <v>1165</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -829,17 +829,17 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="4">
         <f>SUM(C4:C21)</f>
         <v>17000</v>
       </c>
       <c r="D22" s="9">
         <f>SUM(D4:D21)</f>
-        <v>14445</v>
+        <v>14315</v>
       </c>
       <c r="E22" s="8">
         <f>SUM(E4:E21)</f>
@@ -848,14 +848,14 @@
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -878,7 +878,7 @@
       </c>
       <c r="C26" s="2">
         <f>D22</f>
-        <v>14445</v>
+        <v>14315</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -891,18 +891,18 @@
       </c>
       <c r="D27" s="7">
         <f>SUM(C26+C27)</f>
-        <v>14445</v>
+        <v>14315</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11">
         <f>SUM(D24-D27)</f>
-        <v>2555</v>
+        <v>2685</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>

--- a/account.xlsx
+++ b/account.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>วัน/เดือน/ปี</t>
   </si>
@@ -260,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -297,6 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="เครื่องหมายจุลภาค" xfId="1" builtinId="3"/>
@@ -580,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,7 +683,7 @@
       <c r="A7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -702,7 +703,9 @@
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
